--- a/build/resources/main/bundle/meal.xlsx
+++ b/build/resources/main/bundle/meal.xlsx
@@ -14,31 +14,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학번</x:t>
+  </x:si>
   <x:si>
     <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일괄 주말 급식 신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주말 신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평일 신청</x:t>
   </x:si>
   <x:si>
     <x:t>권한 부여자</x:t>
   </x:si>
   <x:si>
-    <x:t>신청</x:t>
+    <x:r>
+      <x:t xml:space="preserve"> *</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>주의</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> : 학번, 이름, 아이디는 변경하여도 아무런 변동이 없으며,</x:t>
+    </x:r>
   </x:si>
   <x:si>
-    <x:t>학번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일괄 주말 급식 신청</x:t>
+    <x:t xml:space="preserve">  학생 인식에 오류가 발생 할 수 있으니 절대로 편집하지 마세요.</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="8">
+  <x:fonts count="10">
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
@@ -69,52 +97,31 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="13"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="13"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="13"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="5">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -126,6 +133,16 @@
         <x:fgColor rgb="ffdfe6f7"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffff00"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffc0cdef"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
   <x:borders count="10">
     <x:border diagonalUp="1" diagonalDown="1">
@@ -155,7 +172,7 @@
       <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
+      <x:bottom style="medium">
         <x:color indexed="64"/>
       </x:bottom>
       <x:diagonal>
@@ -172,7 +189,7 @@
       <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
+      <x:bottom style="medium">
         <x:color indexed="64"/>
       </x:bottom>
       <x:diagonal>
@@ -189,6 +206,23 @@
       <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
       <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
@@ -203,10 +237,10 @@
       <x:right>
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="medium">
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
       <x:diagonal>
@@ -217,6 +251,23 @@
       <x:left>
         <x:color indexed="64"/>
       </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
       <x:right>
         <x:color indexed="64"/>
       </x:right>
@@ -234,27 +285,10 @@
       <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="medium">
+      <x:right>
         <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
@@ -271,24 +305,7 @@
       <x:right style="medium">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
@@ -361,10 +378,104 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="20">
+  <x:cellXfs count="27">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -380,19 +491,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -406,198 +504,118 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -617,6 +635,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -699,6 +718,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -733,6 +753,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -777,6 +798,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -820,6 +842,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -904,6 +927,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -924,6 +948,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -954,6 +979,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1261,74 +1287,102 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:H5"/>
+  <x:dimension ref="A1:L5"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J9" activeCellId="0" sqref="J9:J10"/>
+      <x:selection activeCell="H8" activeCellId="0" sqref="H8:H8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.75"/>
+  <x:cols>
+    <x:col min="2" max="2" width="11.6015625" customWidth="1"/>
+    <x:col min="5" max="5" width="9.1015625" customWidth="1"/>
+    <x:col min="6" max="6" width="9.30078125" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" ht="16.75" customHeight="1">
-      <x:c r="A1" s="1" t="s">
+    <x:row r="1" spans="1:12" ht="16.75" customHeight="1">
+      <x:c r="A1" s="21" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="22"/>
+      <x:c r="C1" s="22"/>
+      <x:c r="D1" s="22"/>
+      <x:c r="E1" s="23"/>
+      <x:c r="G1" s="13" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H1" s="14"/>
+      <x:c r="I1" s="15"/>
+      <x:c r="J1" s="15"/>
+      <x:c r="K1" s="12"/>
+      <x:c r="L1" s="16"/>
+    </x:row>
+    <x:row r="2" spans="1:12">
+      <x:c r="A2" s="24"/>
+      <x:c r="B2" s="25"/>
+      <x:c r="C2" s="25"/>
+      <x:c r="D2" s="25"/>
+      <x:c r="E2" s="26"/>
+      <x:c r="G2" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H2" s="18"/>
+      <x:c r="I2" s="18"/>
+      <x:c r="J2" s="18"/>
+      <x:c r="K2" s="19"/>
+      <x:c r="L2" s="20"/>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="1"/>
+      <x:c r="B3" s="1"/>
+      <x:c r="C3" s="1"/>
+      <x:c r="D3" s="1"/>
+      <x:c r="E3" s="1"/>
+    </x:row>
+    <x:row r="4" spans="1:9" ht="14.5">
+      <x:c r="A4" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B4" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C4" s="8" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D4" s="8"/>
+      <x:c r="E4" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B1" s="2"/>
-      <x:c r="C1" s="2"/>
-      <x:c r="D1" s="2"/>
-      <x:c r="E1" s="3"/>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="4"/>
-      <x:c r="B2" s="5"/>
-      <x:c r="C2" s="5"/>
-      <x:c r="D2" s="5"/>
-      <x:c r="E2" s="6"/>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="7"/>
-      <x:c r="B3" s="7"/>
-      <x:c r="C3" s="7"/>
-      <x:c r="D3" s="7"/>
-      <x:c r="E3" s="7"/>
-    </x:row>
-    <x:row r="4" spans="1:8" ht="14.5">
-      <x:c r="A4" s="10" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="11" t="s">
+      <x:c r="F4" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="12" t="s">
-        <x:v>0</x:v>
+      <x:c r="G4" s="2"/>
+      <x:c r="H4" s="9" t="s">
+        <x:v>6</x:v>
       </x:c>
-      <x:c r="D4" s="12"/>
-      <x:c r="E4" s="13" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G4" s="8" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H4" s="9"/>
+      <x:c r="I4" s="10"/>
     </x:row>
-    <x:row r="5" spans="1:8" ht="14.5">
-      <x:c r="A5" s="16"/>
-      <x:c r="B5" s="17"/>
-      <x:c r="C5" s="18"/>
-      <x:c r="D5" s="18"/>
-      <x:c r="E5" s="19"/>
-      <x:c r="G5" s="14"/>
-      <x:c r="H5" s="15"/>
+    <x:row r="5" spans="1:9" ht="14.5">
+      <x:c r="A5" s="4"/>
+      <x:c r="B5" s="4"/>
+      <x:c r="C5" s="3"/>
+      <x:c r="D5" s="3"/>
+      <x:c r="E5" s="4"/>
+      <x:c r="F5" s="4"/>
+      <x:c r="G5" s="3"/>
+      <x:c r="H5" s="11"/>
+      <x:c r="I5" s="11"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="5">
+  <x:mergeCells count="6">
     <x:mergeCell ref="A1:E2"/>
     <x:mergeCell ref="C4:D4"/>
-    <x:mergeCell ref="C5:D5"/>
-    <x:mergeCell ref="G4:H4"/>
-    <x:mergeCell ref="G5:H5"/>
+    <x:mergeCell ref="H4:I4"/>
+    <x:mergeCell ref="H5:I5"/>
+    <x:mergeCell ref="G1:L1"/>
+    <x:mergeCell ref="G2:L2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/build/resources/main/bundle/meal.xlsx
+++ b/build/resources/main/bundle/meal.xlsx
@@ -19,22 +19,13 @@
     <x:t>이름</x:t>
   </x:si>
   <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
     <x:t>학번</x:t>
   </x:si>
   <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일괄 주말 급식 신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주말 신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평일 신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권한 부여자</x:t>
+    <x:t>권한 부여자 ID</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -60,6 +51,15 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">  학생 인식에 오류가 발생 할 수 있으니 절대로 편집하지 마세요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주말 신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평일 신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일괄 주말 급식 신청</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -105,14 +105,14 @@
     </x:font>
     <x:font>
       <x:name val="돋움"/>
-      <x:sz val="10"/>
+      <x:sz val="13"/>
       <x:color rgb="ff000000"/>
+      <x:b val="1"/>
     </x:font>
     <x:font>
       <x:name val="돋움"/>
-      <x:sz val="13"/>
+      <x:sz val="10"/>
       <x:color rgb="ff000000"/>
-      <x:b val="1"/>
     </x:font>
     <x:font>
       <x:name val="돋움"/>
@@ -135,12 +135,12 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffffff00"/>
+        <x:fgColor rgb="ffc0cdef"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffc0cdef"/>
+        <x:fgColor rgb="ffffff00"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -214,7 +214,7 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
+      <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
       <x:right>
@@ -231,7 +231,7 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="medium">
+      <x:left>
         <x:color indexed="64"/>
       </x:left>
       <x:right>
@@ -465,6 +465,84 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -515,111 +593,33 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="6">
     <x:cellStyle xfId="15" builtinId="5" iLevel="0"/>
@@ -635,7 +635,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -718,7 +717,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -753,7 +751,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -798,7 +795,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -842,7 +838,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -927,7 +922,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -948,7 +942,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -979,7 +972,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1290,7 +1282,7 @@
   <x:dimension ref="A1:L5"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H8" activeCellId="0" sqref="H8:H8"/>
+      <x:selection activeCell="J7" activeCellId="0" sqref="J7:J7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.75"/>
@@ -1301,36 +1293,36 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:12" ht="16.75" customHeight="1">
-      <x:c r="A1" s="21" t="s">
-        <x:v>3</x:v>
+      <x:c r="A1" s="8" t="s">
+        <x:v>8</x:v>
       </x:c>
-      <x:c r="B1" s="22"/>
-      <x:c r="C1" s="22"/>
-      <x:c r="D1" s="22"/>
-      <x:c r="E1" s="23"/>
-      <x:c r="G1" s="13" t="s">
-        <x:v>7</x:v>
+      <x:c r="B1" s="9"/>
+      <x:c r="C1" s="9"/>
+      <x:c r="D1" s="9"/>
+      <x:c r="E1" s="10"/>
+      <x:c r="G1" s="18" t="s">
+        <x:v>4</x:v>
       </x:c>
-      <x:c r="H1" s="14"/>
-      <x:c r="I1" s="15"/>
-      <x:c r="J1" s="15"/>
-      <x:c r="K1" s="12"/>
-      <x:c r="L1" s="16"/>
+      <x:c r="H1" s="19"/>
+      <x:c r="I1" s="20"/>
+      <x:c r="J1" s="20"/>
+      <x:c r="K1" s="21"/>
+      <x:c r="L1" s="22"/>
     </x:row>
     <x:row r="2" spans="1:12">
-      <x:c r="A2" s="24"/>
-      <x:c r="B2" s="25"/>
-      <x:c r="C2" s="25"/>
-      <x:c r="D2" s="25"/>
-      <x:c r="E2" s="26"/>
-      <x:c r="G2" s="17" t="s">
-        <x:v>8</x:v>
+      <x:c r="A2" s="11"/>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="12"/>
+      <x:c r="D2" s="12"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="G2" s="23" t="s">
+        <x:v>5</x:v>
       </x:c>
-      <x:c r="H2" s="18"/>
-      <x:c r="I2" s="18"/>
-      <x:c r="J2" s="18"/>
-      <x:c r="K2" s="19"/>
-      <x:c r="L2" s="20"/>
+      <x:c r="H2" s="24"/>
+      <x:c r="I2" s="24"/>
+      <x:c r="J2" s="24"/>
+      <x:c r="K2" s="25"/>
+      <x:c r="L2" s="26"/>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="1"/>
@@ -1341,28 +1333,28 @@
     </x:row>
     <x:row r="4" spans="1:9" ht="14.5">
       <x:c r="A4" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C4" s="8" t="s">
-        <x:v>2</x:v>
+      <x:c r="C4" s="14" t="s">
+        <x:v>1</x:v>
       </x:c>
-      <x:c r="D4" s="8"/>
+      <x:c r="D4" s="14"/>
       <x:c r="E4" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G4" s="2"/>
-      <x:c r="H4" s="9" t="s">
-        <x:v>6</x:v>
+      <x:c r="H4" s="15" t="s">
+        <x:v>3</x:v>
       </x:c>
-      <x:c r="I4" s="10"/>
+      <x:c r="I4" s="16"/>
     </x:row>
-    <x:row r="5" spans="1:9" ht="14.5">
+    <x:row r="5" spans="1:9">
       <x:c r="A5" s="4"/>
       <x:c r="B5" s="4"/>
       <x:c r="C5" s="3"/>
@@ -1370,8 +1362,8 @@
       <x:c r="E5" s="4"/>
       <x:c r="F5" s="4"/>
       <x:c r="G5" s="3"/>
-      <x:c r="H5" s="11"/>
-      <x:c r="I5" s="11"/>
+      <x:c r="H5" s="17"/>
+      <x:c r="I5" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="6">
